--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\Nayra\Projects\ECGR4181\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D610A4EF-5A84-443B-AD58-99D6EA76DEC1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E444204-CE14-4B20-B428-08C5DB77BEBD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{D96A6CD0-2D2C-4510-B6B0-3B9888E26D74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1218,10 +1218,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
